--- a/UnderstandData.xlsx
+++ b/UnderstandData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="63">
   <si>
     <t>Data Souce</t>
   </si>
@@ -107,10 +107,10 @@
     <t>To predict: clicked</t>
   </si>
   <si>
-    <t xml:space="preserve">in order to correctly predict clicked or not, </t>
-  </si>
-  <si>
-    <t>shows correct submission format</t>
+    <t>Probability' of being clicked</t>
+  </si>
+  <si>
+    <t>shows correct submission format: predict a space-delimited list of ad_ids, ordered by decreasing liklihood of being clicked</t>
   </si>
   <si>
     <t>sample_submission.csv</t>
@@ -385,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -429,7 +429,13 @@
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -438,9 +444,6 @@
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -495,18 +498,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1962150</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image00.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image01.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -518,6 +521,42 @@
       <xdr:spPr>
         <a:xfrm>
           <a:ext cx="4953000" cy="4019550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2247900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image00.png" title="Image"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:ext cx="5038725" cy="1638300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -688,47 +727,48 @@
       <c r="B16" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="C16" s="15" t="s">
         <v>31</v>
       </c>
+      <c r="D16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" s="5"/>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="16" t="s">
         <v>32</v>
       </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
     </row>
     <row r="19">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18">
+      <c r="A20" s="19"/>
+      <c r="B20" s="20">
         <v>1.6874595E7</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="16" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18">
+      <c r="A21" s="19"/>
+      <c r="B21" s="20">
         <v>1.6874596E7</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="16" t="s">
         <v>35</v>
       </c>
     </row>
@@ -736,271 +776,271 @@
       <c r="A22" s="5"/>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="5"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="22"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="s">
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="23"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B25" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D25" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E25" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="26" t="s">
+      <c r="F25" s="27" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="5"/>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="31"/>
+      <c r="E26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="5"/>
-      <c r="B27" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="33"/>
+      <c r="B27" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="32"/>
     </row>
     <row r="28">
       <c r="A28" s="5"/>
-      <c r="B28" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="32" t="s">
+      <c r="B28" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="33"/>
+      <c r="D28" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="34"/>
     </row>
     <row r="29">
       <c r="A29" s="5"/>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="34"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="5"/>
+      <c r="B30" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="32" t="s">
+      <c r="D30" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="33"/>
-    </row>
-    <row r="30">
-      <c r="D30" s="32" t="s">
+      <c r="F30" s="34"/>
+    </row>
+    <row r="31">
+      <c r="D31" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="F30" s="33"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="s">
+      <c r="F31" s="34"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="32" t="s">
+      <c r="D32" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="F31" s="33"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="s">
+      <c r="F32" s="34"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B33" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D33" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="F32" s="33"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="5"/>
-      <c r="B33" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="F33" s="33"/>
+      <c r="F33" s="34"/>
     </row>
     <row r="34">
       <c r="A34" s="5"/>
-      <c r="B34" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="F34" s="33"/>
+      <c r="B34" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="34"/>
     </row>
     <row r="35">
       <c r="A35" s="5"/>
-      <c r="B35" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="F35" s="33"/>
+      <c r="B35" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="34"/>
     </row>
     <row r="36">
       <c r="A36" s="5"/>
-      <c r="D36" s="32" t="s">
+      <c r="B36" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" s="34"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="5"/>
+      <c r="D37" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="F36" s="33"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="s">
+      <c r="F37" s="34"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="32" t="s">
+      <c r="D38" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="F37" s="33"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="3" t="s">
+      <c r="F38" s="34"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B39" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="34" t="s">
+      <c r="D39" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="E38" s="35"/>
-      <c r="F38" s="36"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="5"/>
-      <c r="B39" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="E39" s="36"/>
+      <c r="F39" s="37"/>
     </row>
     <row r="40">
       <c r="A40" s="5"/>
-      <c r="B40" s="27" t="s">
-        <v>51</v>
+      <c r="B40" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="5"/>
-      <c r="B41" s="27" t="s">
-        <v>52</v>
+      <c r="B41" s="28" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="5"/>
+      <c r="B42" s="28" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="5"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="29" t="s">
+      <c r="B44" s="30" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="3"/>
-      <c r="B44" s="27" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3"/>
-      <c r="B45" s="27" t="s">
-        <v>55</v>
+      <c r="B45" s="28" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3"/>
-      <c r="B46" s="2"/>
+      <c r="B46" s="28" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="3"/>
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="29" t="s">
+      <c r="B48" s="30" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="3"/>
-      <c r="B48" s="27" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3"/>
-      <c r="B49" s="27" t="s">
-        <v>55</v>
+      <c r="B49" s="28" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3"/>
-      <c r="B50" s="2"/>
+      <c r="B50" s="28" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="3"/>
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B51" s="29" t="s">
+      <c r="B52" s="30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="5"/>
-      <c r="B52" s="27" t="s">
+    <row r="53">
+      <c r="A53" s="5"/>
+      <c r="B53" s="28" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="2"/>
-      <c r="B53" s="27" t="s">
+    <row r="54">
+      <c r="A54" s="2"/>
+      <c r="B54" s="28" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="5"/>
     </row>
     <row r="55">
       <c r="A55" s="5"/>
@@ -3863,6 +3903,9 @@
     </row>
     <row r="1008">
       <c r="A1008" s="5"/>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
